--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -537,16 +537,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.280658475871907</v>
+        <v>0.3304176666666667</v>
       </c>
       <c r="H2">
-        <v>0.280658475871907</v>
+        <v>0.9912529999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.301447863039059</v>
+        <v>0.3412459999999999</v>
       </c>
       <c r="N2">
-        <v>0.301447863039059</v>
+        <v>1.023738</v>
       </c>
       <c r="O2">
-        <v>0.1401900636462925</v>
+        <v>0.147839631507836</v>
       </c>
       <c r="P2">
-        <v>0.1401900636462925</v>
+        <v>0.147839631507836</v>
       </c>
       <c r="Q2">
-        <v>0.08460389779538567</v>
+        <v>0.1127537070793333</v>
       </c>
       <c r="R2">
-        <v>0.08460389779538567</v>
+        <v>1.014783363714</v>
       </c>
       <c r="S2">
-        <v>0.1401900636462925</v>
+        <v>0.147839631507836</v>
       </c>
       <c r="T2">
-        <v>0.1401900636462925</v>
+        <v>0.147839631507836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.280658475871907</v>
+        <v>0.3304176666666667</v>
       </c>
       <c r="H3">
-        <v>0.280658475871907</v>
+        <v>0.9912529999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.488670338971252</v>
+        <v>0.4973860000000001</v>
       </c>
       <c r="N3">
-        <v>0.488670338971252</v>
+        <v>1.492158</v>
       </c>
       <c r="O3">
-        <v>0.22725895361069</v>
+        <v>0.2154849081224587</v>
       </c>
       <c r="P3">
-        <v>0.22725895361069</v>
+        <v>0.2154849081224587</v>
       </c>
       <c r="Q3">
-        <v>0.1371494725394798</v>
+        <v>0.1643451215526667</v>
       </c>
       <c r="R3">
-        <v>0.1371494725394798</v>
+        <v>1.479106093974</v>
       </c>
       <c r="S3">
-        <v>0.22725895361069</v>
+        <v>0.2154849081224587</v>
       </c>
       <c r="T3">
-        <v>0.22725895361069</v>
+        <v>0.2154849081224587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.280658475871907</v>
+        <v>0.3304176666666667</v>
       </c>
       <c r="H4">
-        <v>0.280658475871907</v>
+        <v>0.9912529999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.268605192383667</v>
+        <v>0.299649</v>
       </c>
       <c r="N4">
-        <v>0.268605192383667</v>
+        <v>0.8989469999999999</v>
       </c>
       <c r="O4">
-        <v>0.1249163906367178</v>
+        <v>0.1298183648795636</v>
       </c>
       <c r="P4">
-        <v>0.1249163906367178</v>
+        <v>0.1298183648795636</v>
       </c>
       <c r="Q4">
-        <v>0.07538632390568034</v>
+        <v>0.099009323399</v>
       </c>
       <c r="R4">
-        <v>0.07538632390568034</v>
+        <v>0.8910839105909999</v>
       </c>
       <c r="S4">
-        <v>0.1249163906367178</v>
+        <v>0.1298183648795636</v>
       </c>
       <c r="T4">
-        <v>0.1249163906367178</v>
+        <v>0.1298183648795636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.280658475871907</v>
+        <v>0.3304176666666667</v>
       </c>
       <c r="H5">
-        <v>0.280658475871907</v>
+        <v>0.9912529999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.410349000700813</v>
+        <v>0.4296976666666667</v>
       </c>
       <c r="N5">
-        <v>0.410349000700813</v>
+        <v>1.289093</v>
       </c>
       <c r="O5">
-        <v>0.1908351644807834</v>
+        <v>0.186159968760885</v>
       </c>
       <c r="P5">
-        <v>0.1908351644807834</v>
+        <v>0.186159968760885</v>
       </c>
       <c r="Q5">
-        <v>0.1151679251122503</v>
+        <v>0.1419797003921111</v>
       </c>
       <c r="R5">
-        <v>0.1151679251122503</v>
+        <v>1.277817303529</v>
       </c>
       <c r="S5">
-        <v>0.1908351644807834</v>
+        <v>0.186159968760885</v>
       </c>
       <c r="T5">
-        <v>0.1908351644807834</v>
+        <v>0.186159968760885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.280658475871907</v>
+        <v>0.3304176666666667</v>
       </c>
       <c r="H6">
-        <v>0.280658475871907</v>
+        <v>0.9912529999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09537822707440689</v>
+        <v>0.1086676666666667</v>
       </c>
       <c r="N6">
-        <v>0.09537822707440689</v>
+        <v>0.326003</v>
       </c>
       <c r="O6">
-        <v>0.04435619343667111</v>
+        <v>0.04707861131505237</v>
       </c>
       <c r="P6">
-        <v>0.04435619343667111</v>
+        <v>0.04707861131505237</v>
       </c>
       <c r="Q6">
-        <v>0.0267687078420677</v>
+        <v>0.03590571686211111</v>
       </c>
       <c r="R6">
-        <v>0.0267687078420677</v>
+        <v>0.323151451759</v>
       </c>
       <c r="S6">
-        <v>0.04435619343667111</v>
+        <v>0.04707861131505237</v>
       </c>
       <c r="T6">
-        <v>0.04435619343667111</v>
+        <v>0.04707861131505237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.280658475871907</v>
+        <v>0.3304176666666667</v>
       </c>
       <c r="H7">
-        <v>0.280658475871907</v>
+        <v>0.9912529999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.585829185104655</v>
+        <v>0.631571</v>
       </c>
       <c r="N7">
-        <v>0.585829185104655</v>
+        <v>1.894713</v>
       </c>
       <c r="O7">
-        <v>0.2724432341888451</v>
+        <v>0.2736185154142042</v>
       </c>
       <c r="P7">
-        <v>0.2724432341888451</v>
+        <v>0.2736185154142042</v>
       </c>
       <c r="Q7">
-        <v>0.1644179262127538</v>
+        <v>0.2086822161543333</v>
       </c>
       <c r="R7">
-        <v>0.1644179262127538</v>
+        <v>1.878139945389</v>
       </c>
       <c r="S7">
-        <v>0.2724432341888451</v>
+        <v>0.2736185154142042</v>
       </c>
       <c r="T7">
-        <v>0.2724432341888451</v>
+        <v>0.2736185154142042</v>
       </c>
     </row>
   </sheetData>
